--- a/q-war/config/General.xlsx
+++ b/q-war/config/General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test_Center\Personal_Exp\QWar\q-war\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7462DA-D2EB-4F7C-8C9D-6FCB66D50C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F376D2-0DE8-43E1-9FDB-E30244AD1909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="2655" windowWidth="25485" windowHeight="17070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42030" yWindow="2535" windowWidth="25485" windowHeight="17070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -510,10 +510,10 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -548,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -585,6 +585,9 @@
       <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -602,6 +605,9 @@
       <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -617,6 +623,9 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
         <v>30</v>
       </c>
     </row>
